--- a/Data/test.xlsx
+++ b/Data/test.xlsx
@@ -529,7 +529,7 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
